--- a/分工与绩效评价.xlsx
+++ b/分工与绩效评价.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9555"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="31">
   <si>
     <t>序号</t>
   </si>
@@ -87,6 +88,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>翻转课堂</t>
     </r>
     <r>
@@ -116,6 +123,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">OBS </t>
     </r>
     <r>
@@ -136,6 +149,12 @@
   </si>
   <si>
     <t>资源分配表</t>
+  </si>
+  <si>
+    <t>组员</t>
+  </si>
+  <si>
+    <t>绩效（五分制）</t>
   </si>
 </sst>
 </file>
@@ -775,7 +794,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -786,9 +805,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1324,21 +1340,21 @@
   <sheetPr/>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="19.9823008849558" customWidth="1"/>
-    <col min="3" max="3" width="11.2212389380531" customWidth="1"/>
-    <col min="4" max="4" width="10.6991150442478" customWidth="1"/>
-    <col min="5" max="5" width="11.4247787610619" customWidth="1"/>
-    <col min="6" max="6" width="12.0884955752212" customWidth="1"/>
-    <col min="7" max="7" width="12.353982300885" customWidth="1"/>
+    <col min="2" max="2" width="19.9833333333333" customWidth="1"/>
+    <col min="3" max="3" width="11.225" customWidth="1"/>
+    <col min="4" max="4" width="10.7" customWidth="1"/>
+    <col min="5" max="5" width="11.425" customWidth="1"/>
+    <col min="6" max="6" width="12.0916666666667" customWidth="1"/>
+    <col min="7" max="7" width="12.35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:8">
+    <row r="1" ht="17.25" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1534,7 +1550,7 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1606,7 +1622,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1729,4 +1745,64 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>